--- a/biology/Botanique/Bolet_bronzé/Bolet_bronzé.xlsx
+++ b/biology/Botanique/Bolet_bronzé/Bolet_bronzé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_bronz%C3%A9</t>
+          <t>Bolet_bronzé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cèpe bronzé
 Boletus aereus, le Cèpe bronzé, est une espèce de  champignons basidiomycètes du genre Boletus et de la famille des Boletaceae. Il fait partie, avec Boletus edulis, Boletus reticulatus et Boletus pinophilus, des quatre espèces de bolets "nobles" ; les Cèpes. Cette espèce comestible, fréquente en France dans les régions méditerranéennes, est caractérisée par son chapeau sombre et sa tendance thermophile. Les dernières études phylogénétiques la placent dans un clade proche du groupe des edulis stricto sensu.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_bronz%C3%A9</t>
+          <t>Bolet_bronzé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Boletus aereus Bulliard 1789. 
-Synonymes
-Boletus aereus a pour synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus aereus Bulliard 1789. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_bronzé</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bronz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus aereus a pour synonymes :
 Tubiporus aereus (Bull.) P. Karst.
 Dictyopus aereus (Bull.) Quél.
 Suillus aereus (Bull.) Kuntze,
@@ -528,57 +577,206 @@
 Boletus aereus var. cravetta (Bellardi) DC.
 Boletus cepa Thore
 Boletus aereus var. cepa (Thore) DC.
-Étymologie
-L'épithète spécifique latine "aereus" signifie « d'airain », « de bronze », en réfèrence à la couleur du chapeau.
-Noms vulgaires et vernaculaires
-Nom normalisé
-Le nom normalisé de Boletus aereus est le Cèpe bronzé.
-Autres noms
-Cèpe noir.
-Gendarme noir[1].
-Cèpe tête-de-nègre[2], mais ce nom n'est plus recommandé par le Comité pour les noms français des champignons[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_bronz%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_bronzé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_bronz%C3%A9</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine "aereus" signifie « d'airain », « de bronze », en réfèrence à la couleur du chapeau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_bronzé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bronz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nom normalisé</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom normalisé de Boletus aereus est le Cèpe bronzé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_bronzé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bronz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres noms</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cèpe noir.
+Gendarme noir.
+Cèpe tête-de-nègre, mais ce nom n'est plus recommandé par le Comité pour les noms français des champignons.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_bronzé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bronz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cèpe bronzé est un bolet. Les bolets sont des champignons dont l’hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Boletus aereus sont les suivantes :
 Son chapeau mesure de 7 à 15-20, voire 30 cm. Sa cuticule est de couleur brun-noir, d'abord noire (parfois gris blanc lorsqu'il est jeune, à l'état de bouchon couvert par la végétation), puis parfois bistre-bronze lorsqu'il est exposé.
 L'hyménophore présente des pores fins, concolores aux tubes, tout d'abord d'un blanc pur qui devient jaune puis enfin olivâtre. Sa sporée est de couleur olivâtre.
 Son stipe (pied) mesure de 6 à 10 cm, il est de couleur brun, brun foncé, marron clair à marron. Il est généralement orné d'un fin réseau concolore peu étendu.
-La chair est blanche, immuable, épaisse et ferme. Sa saveur est douce et son odeur est très agréable, de forêt humide[4].
+La chair est blanche, immuable, épaisse et ferme. Sa saveur est douce et son odeur est très agréable, de forêt humide.
 	Principaux caractères distinctifs
 			Silhouette boletoïde.
 			Chapeau sombre, brun à brun noir.
 			Pores blancs devenant jaunes puis olivâtres. Stipe brun.
 			Réseau concolore, fin et souvent peu étendu, difficile à voir.
 			Chair blanche immuable.
-Caractéristiques microscopiques
-Ses spores mesurent 13,5 à 15,5 μm x 4,5 à 5,5 μm, elles sont allongées-fusoïdes[4]. Ses cystides sont fusiformes, mesurant 50 à 65 µm x 11 à 16 µm. La cuticule est faite d'hyphes enchevêtrées non bouclées larges de 4 à 10 µm[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_bronzé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_bronz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 13,5 à 15,5 μm x 4,5 à 5,5 μm, elles sont allongées-fusoïdes. Ses cystides sont fusiformes, mesurant 50 à 65 µm x 11 à 16 µm. La cuticule est faite d'hyphes enchevêtrées non bouclées larges de 4 à 10 µm.
 </t>
         </is>
       </c>
